--- a/natmiOut/OldD4/LR-pairs_lrc2p/Spp1-Cd44.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Spp1-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H2">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I2">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J2">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N2">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O2">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P2">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q2">
-        <v>899.2738294045048</v>
+        <v>242.6428898158136</v>
       </c>
       <c r="R2">
-        <v>899.2738294045048</v>
+        <v>2183.786008342322</v>
       </c>
       <c r="S2">
-        <v>0.001058927277410436</v>
+        <v>0.0001840741012229155</v>
       </c>
       <c r="T2">
-        <v>0.001058927277410436</v>
+        <v>0.0001935579300541361</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H3">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I3">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J3">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N3">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P3">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q3">
-        <v>4006.574649626889</v>
+        <v>932.8658089007167</v>
       </c>
       <c r="R3">
-        <v>4006.574649626889</v>
+        <v>8395.792280106451</v>
       </c>
       <c r="S3">
-        <v>0.004717885750417703</v>
+        <v>0.0007076920138287783</v>
       </c>
       <c r="T3">
-        <v>0.004717885750417703</v>
+        <v>0.0007441535794688357</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H4">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I4">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J4">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N4">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O4">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P4">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q4">
-        <v>6862.194413902999</v>
+        <v>1576.570986252505</v>
       </c>
       <c r="R4">
-        <v>6862.194413902999</v>
+        <v>14189.13887627255</v>
       </c>
       <c r="S4">
-        <v>0.008080480728086233</v>
+        <v>0.001196020569689251</v>
       </c>
       <c r="T4">
-        <v>0.008080480728086233</v>
+        <v>0.001257641700995579</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H5">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I5">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J5">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N5">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O5">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P5">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q5">
-        <v>14973.2480464</v>
+        <v>3639.855391182262</v>
       </c>
       <c r="R5">
-        <v>14973.2480464</v>
+        <v>32758.69852064036</v>
       </c>
       <c r="S5">
-        <v>0.01763153810254323</v>
+        <v>0.002761272379429075</v>
       </c>
       <c r="T5">
-        <v>0.01763153810254323</v>
+        <v>0.002903538099749878</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H6">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I6">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J6">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N6">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O6">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P6">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q6">
-        <v>2446.481320418079</v>
+        <v>784.0447197138673</v>
       </c>
       <c r="R6">
-        <v>2446.481320418079</v>
+        <v>4704.268318283203</v>
       </c>
       <c r="S6">
-        <v>0.002880819744950567</v>
+        <v>0.0005947931431638308</v>
       </c>
       <c r="T6">
-        <v>0.002880819744950567</v>
+        <v>0.0004169586372601277</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H7">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I7">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J7">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N7">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O7">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P7">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q7">
-        <v>12182.09777097426</v>
+        <v>1280.095496242929</v>
       </c>
       <c r="R7">
-        <v>12182.09777097426</v>
+        <v>11520.85946618636</v>
       </c>
       <c r="S7">
-        <v>0.01434485826670594</v>
+        <v>0.0009711079031793765</v>
       </c>
       <c r="T7">
-        <v>0.01434485826670594</v>
+        <v>0.001021141129305226</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H8">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I8">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J8">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N8">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P8">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q8">
-        <v>54275.44148680773</v>
+        <v>4921.460181583275</v>
       </c>
       <c r="R8">
-        <v>54275.44148680773</v>
+        <v>44293.14163424948</v>
       </c>
       <c r="S8">
-        <v>0.06391128442149108</v>
+        <v>0.003733525265533115</v>
       </c>
       <c r="T8">
-        <v>0.06391128442149108</v>
+        <v>0.003925883203559789</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H9">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I9">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J9">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N9">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O9">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P9">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q9">
-        <v>92959.36403370777</v>
+        <v>8317.414207113421</v>
       </c>
       <c r="R9">
-        <v>92959.36403370777</v>
+        <v>74856.7278640208</v>
       </c>
       <c r="S9">
-        <v>0.1094629945265999</v>
+        <v>0.006309768836973898</v>
       </c>
       <c r="T9">
-        <v>0.1094629945265999</v>
+        <v>0.006634859478280151</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H10">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I10">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J10">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N10">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O10">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P10">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q10">
-        <v>202836.5172942733</v>
+        <v>19202.55111025428</v>
       </c>
       <c r="R10">
-        <v>202836.5172942733</v>
+        <v>172822.9599922886</v>
       </c>
       <c r="S10">
-        <v>0.2388472943331089</v>
+        <v>0.01456746719217812</v>
       </c>
       <c r="T10">
-        <v>0.2388472943331089</v>
+        <v>0.01531800930775652</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H11">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I11">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J11">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N11">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O11">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P11">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q11">
-        <v>33141.49001748538</v>
+        <v>4136.334327870179</v>
       </c>
       <c r="R11">
-        <v>33141.49001748538</v>
+        <v>24818.00596722107</v>
       </c>
       <c r="S11">
-        <v>0.0390252964625695</v>
+        <v>0.003137911950925725</v>
       </c>
       <c r="T11">
-        <v>0.0390252964625695</v>
+        <v>0.002199721879678558</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H12">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I12">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J12">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N12">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O12">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P12">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q12">
-        <v>12857.38719400128</v>
+        <v>24115.27367649706</v>
       </c>
       <c r="R12">
-        <v>12857.38719400128</v>
+        <v>217037.4630884735</v>
       </c>
       <c r="S12">
-        <v>0.01514003584978271</v>
+        <v>0.01829436391528061</v>
       </c>
       <c r="T12">
-        <v>0.01514003584978271</v>
+        <v>0.01923692245445538</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H13">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I13">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J13">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N13">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O13">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P13">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q13">
-        <v>57284.08845839019</v>
+        <v>92713.67606182149</v>
       </c>
       <c r="R13">
-        <v>57284.08845839019</v>
+        <v>834423.0845563934</v>
       </c>
       <c r="S13">
-        <v>0.06745407443954006</v>
+        <v>0.0703345834906063</v>
       </c>
       <c r="T13">
-        <v>0.06745407443954006</v>
+        <v>0.07395834775895554</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H14">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I14">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J14">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N14">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O14">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P14">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q14">
-        <v>98112.37433484416</v>
+        <v>156688.872411485</v>
       </c>
       <c r="R14">
-        <v>98112.37433484416</v>
+        <v>1410199.851703365</v>
       </c>
       <c r="S14">
-        <v>0.1155308494893799</v>
+        <v>0.1188675397934387</v>
       </c>
       <c r="T14">
-        <v>0.1155308494893799</v>
+        <v>0.1249918092778464</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H15">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I15">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J15">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N15">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O15">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P15">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q15">
-        <v>214080.3405919996</v>
+        <v>361750.1793185161</v>
       </c>
       <c r="R15">
-        <v>214080.3405919996</v>
+        <v>3255751.613866645</v>
       </c>
       <c r="S15">
-        <v>0.2520873006615814</v>
+        <v>0.2744314460474441</v>
       </c>
       <c r="T15">
-        <v>0.2520873006615814</v>
+        <v>0.2885706478304611</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H16">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I16">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J16">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N16">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O16">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P16">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q16">
-        <v>34978.62004984217</v>
+        <v>77922.96326863188</v>
       </c>
       <c r="R16">
-        <v>34978.62004984217</v>
+        <v>467537.7796117913</v>
       </c>
       <c r="S16">
-        <v>0.0411885831498967</v>
+        <v>0.05911403148547923</v>
       </c>
       <c r="T16">
-        <v>0.0411885831498967</v>
+        <v>0.04143979515303288</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.1064414410178</v>
+        <v>815.2030129999999</v>
       </c>
       <c r="H17">
-        <v>13.1064414410178</v>
+        <v>2445.609039</v>
       </c>
       <c r="I17">
-        <v>0.008637776795935888</v>
+        <v>0.3856357549870674</v>
       </c>
       <c r="J17">
-        <v>0.008637776795935888</v>
+        <v>0.3907359858235961</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N17">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O17">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P17">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q17">
-        <v>226.0053929686146</v>
+        <v>17188.52210578146</v>
       </c>
       <c r="R17">
-        <v>226.0053929686146</v>
+        <v>154696.6989520332</v>
       </c>
       <c r="S17">
-        <v>0.0002661294787315335</v>
+        <v>0.01303958158581796</v>
       </c>
       <c r="T17">
-        <v>0.0002661294787315335</v>
+        <v>0.01371140428639914</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.1064414410178</v>
+        <v>815.2030129999999</v>
       </c>
       <c r="H18">
-        <v>13.1064414410178</v>
+        <v>2445.609039</v>
       </c>
       <c r="I18">
-        <v>0.008637776795935888</v>
+        <v>0.3856357549870674</v>
       </c>
       <c r="J18">
-        <v>0.008637776795935888</v>
+        <v>0.3907359858235961</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N18">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O18">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P18">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q18">
-        <v>1006.931869402491</v>
+        <v>66083.05971870544</v>
       </c>
       <c r="R18">
-        <v>1006.931869402491</v>
+        <v>594747.537468349</v>
       </c>
       <c r="S18">
-        <v>0.00118569849153762</v>
+        <v>0.05013202667102503</v>
       </c>
       <c r="T18">
-        <v>0.00118569849153762</v>
+        <v>0.05271491886906662</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.1064414410178</v>
+        <v>815.2030129999999</v>
       </c>
       <c r="H19">
-        <v>13.1064414410178</v>
+        <v>2445.609039</v>
       </c>
       <c r="I19">
-        <v>0.008637776795935888</v>
+        <v>0.3856357549870674</v>
       </c>
       <c r="J19">
-        <v>0.008637776795935888</v>
+        <v>0.3907359858235961</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N19">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O19">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P19">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q19">
-        <v>1724.605892476793</v>
+        <v>111682.3380611121</v>
       </c>
       <c r="R19">
-        <v>1724.605892476793</v>
+        <v>1005141.042550009</v>
       </c>
       <c r="S19">
-        <v>0.002030785465574784</v>
+        <v>0.08472461738597879</v>
       </c>
       <c r="T19">
-        <v>0.002030785465574784</v>
+        <v>0.08908978208726512</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.1064414410178</v>
+        <v>815.2030129999999</v>
       </c>
       <c r="H20">
-        <v>13.1064414410178</v>
+        <v>2445.609039</v>
       </c>
       <c r="I20">
-        <v>0.008637776795935888</v>
+        <v>0.3856357549870674</v>
       </c>
       <c r="J20">
-        <v>0.008637776795935888</v>
+        <v>0.3907359858235961</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N20">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O20">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P20">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q20">
-        <v>3763.074936789906</v>
+        <v>257842.8525174395</v>
       </c>
       <c r="R20">
-        <v>3763.074936789906</v>
+        <v>2320585.672656956</v>
       </c>
       <c r="S20">
-        <v>0.004431156080840379</v>
+        <v>0.1956051189875304</v>
       </c>
       <c r="T20">
-        <v>0.004431156080840379</v>
+        <v>0.2056830465974647</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>815.2030129999999</v>
+      </c>
+      <c r="H21">
+        <v>2445.609039</v>
+      </c>
+      <c r="I21">
+        <v>0.3856357549870674</v>
+      </c>
+      <c r="J21">
+        <v>0.3907359858235961</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>68.131198</v>
+      </c>
+      <c r="N21">
+        <v>136.262396</v>
+      </c>
+      <c r="O21">
+        <v>0.1092596052410345</v>
+      </c>
+      <c r="P21">
+        <v>0.07559281728592908</v>
+      </c>
+      <c r="Q21">
+        <v>55540.75788889957</v>
+      </c>
+      <c r="R21">
+        <v>333244.5473333974</v>
+      </c>
+      <c r="S21">
+        <v>0.04213441035671529</v>
+      </c>
+      <c r="T21">
+        <v>0.02953683398340047</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H22">
+        <v>165.556469</v>
+      </c>
+      <c r="I22">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J22">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>21.084959</v>
+      </c>
+      <c r="N22">
+        <v>63.25487699999999</v>
+      </c>
+      <c r="O22">
+        <v>0.03381320693734752</v>
+      </c>
+      <c r="P22">
+        <v>0.03509122472428063</v>
+      </c>
+      <c r="Q22">
+        <v>1745.375680524886</v>
+      </c>
+      <c r="R22">
+        <v>10472.25408314931</v>
+      </c>
+      <c r="S22">
+        <v>0.001324079431846654</v>
+      </c>
+      <c r="T22">
+        <v>0.0009281989240667451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H23">
+        <v>165.556469</v>
+      </c>
+      <c r="I23">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J23">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>81.06331633333333</v>
+      </c>
+      <c r="N23">
+        <v>243.189949</v>
+      </c>
+      <c r="O23">
+        <v>0.12999838843446</v>
+      </c>
+      <c r="P23">
+        <v>0.1349118606466557</v>
+      </c>
+      <c r="Q23">
+        <v>6710.278208788348</v>
+      </c>
+      <c r="R23">
+        <v>40261.66925273009</v>
+      </c>
+      <c r="S23">
+        <v>0.005090560993466746</v>
+      </c>
+      <c r="T23">
+        <v>0.003568557235604879</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H24">
+        <v>165.556469</v>
+      </c>
+      <c r="I24">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J24">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>136.9994176666667</v>
+      </c>
+      <c r="N24">
+        <v>410.998253</v>
+      </c>
+      <c r="O24">
+        <v>0.2197011461990087</v>
+      </c>
+      <c r="P24">
+        <v>0.2280050605000741</v>
+      </c>
+      <c r="Q24">
+        <v>11340.56992197478</v>
+      </c>
+      <c r="R24">
+        <v>68043.41953184866</v>
+      </c>
+      <c r="S24">
+        <v>0.00860319961292799</v>
+      </c>
+      <c r="T24">
+        <v>0.00603096795568683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>13.1064414410178</v>
-      </c>
-      <c r="H21">
-        <v>13.1064414410178</v>
-      </c>
-      <c r="I21">
-        <v>0.008637776795935888</v>
-      </c>
-      <c r="J21">
-        <v>0.008637776795935888</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>46.9120012692379</v>
-      </c>
-      <c r="N21">
-        <v>46.9120012692379</v>
-      </c>
-      <c r="O21">
-        <v>0.08381870663666834</v>
-      </c>
-      <c r="P21">
-        <v>0.08381870663666834</v>
-      </c>
-      <c r="Q21">
-        <v>614.8493975162193</v>
-      </c>
-      <c r="R21">
-        <v>614.8493975162193</v>
-      </c>
-      <c r="S21">
-        <v>0.0007240072792515712</v>
-      </c>
-      <c r="T21">
-        <v>0.0007240072792515712</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H25">
+        <v>165.556469</v>
+      </c>
+      <c r="I25">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J25">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>316.292811</v>
+      </c>
+      <c r="N25">
+        <v>948.878433</v>
+      </c>
+      <c r="O25">
+        <v>0.5072276531881493</v>
+      </c>
+      <c r="P25">
+        <v>0.5263990368430604</v>
+      </c>
+      <c r="Q25">
+        <v>26182.16047962218</v>
+      </c>
+      <c r="R25">
+        <v>157092.9628777331</v>
+      </c>
+      <c r="S25">
+        <v>0.01986234858156761</v>
+      </c>
+      <c r="T25">
+        <v>0.01392379500762825</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H26">
+        <v>165.556469</v>
+      </c>
+      <c r="I26">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J26">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>68.131198</v>
+      </c>
+      <c r="N26">
+        <v>136.262396</v>
+      </c>
+      <c r="O26">
+        <v>0.1092596052410345</v>
+      </c>
+      <c r="P26">
+        <v>0.07559281728592908</v>
+      </c>
+      <c r="Q26">
+        <v>5639.780284809932</v>
+      </c>
+      <c r="R26">
+        <v>22559.12113923973</v>
+      </c>
+      <c r="S26">
+        <v>0.004278458304750411</v>
+      </c>
+      <c r="T26">
+        <v>0.00199950763255704</v>
       </c>
     </row>
   </sheetData>
